--- a/biology/Botanique/Eisenia_(algue)/Eisenia_(algue).xlsx
+++ b/biology/Botanique/Eisenia_(algue)/Eisenia_(algue).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Eisenia est un genre d'algues brunes de la famille des Lessoniaceae selon AlgaeBase                                           (31 oct. 2012)[1] et World Register of Marine Species                               (31 oct. 2012)[2] ou bien dans la famille des Alariaceae selon Catalogue of Life                                   (31 oct. 2012)[3] et ITIS      (31 oct. 2012)[4]. 
+Eisenia est un genre d'algues brunes de la famille des Lessoniaceae selon AlgaeBase                                           (31 oct. 2012) et World Register of Marine Species                               (31 oct. 2012) ou bien dans la famille des Alariaceae selon Catalogue of Life                                   (31 oct. 2012) et ITIS      (31 oct. 2012). 
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (31 oct. 2012)[1] et World Register of Marine Species                               (31 oct. 2012)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (31 oct. 2012) et World Register of Marine Species                               (31 oct. 2012) :
 Eisenia arborea Areschoug, 1876 (espèce type)
 Eisenia bicyclis (Kjellman) Setchell, 1905
 Eisenia cokeri M.A.Howe, 1914
@@ -522,13 +536,13 @@
 Eisenia galapagensis W.R.Taylor, 1945
 Eisenia gracilis E.Y.Dawson, Acleto &amp; Foldvik, 1964
 Eisenia masonii Setchell &amp; N.L.Gardner, 1930
-Selon Catalogue of Life                                   (31 oct. 2012)[3] :
+Selon Catalogue of Life                                   (31 oct. 2012) :
 Eisenia arborea
 Eisenia bicyclis
 Eisenia desmarestioides
 Eisenia galapagensis
 Eisenia masonii
-Selon ITIS      (31 oct. 2012)[4] :
+Selon ITIS      (31 oct. 2012) :
 Eisenia arborea Areschoug, 1876</t>
         </is>
       </c>
